--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bdnf-Sort1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bdnf-Sort1.xlsx
@@ -546,10 +546,10 @@
         <v>0.097622</v>
       </c>
       <c r="I2">
-        <v>0.02633076257175775</v>
+        <v>0.1818801724491279</v>
       </c>
       <c r="J2">
-        <v>0.03898291886711459</v>
+        <v>0.2500781318045117</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9703876666666665</v>
+        <v>0.4260053333333333</v>
       </c>
       <c r="N2">
-        <v>2.911163</v>
+        <v>1.278016</v>
       </c>
       <c r="O2">
-        <v>0.03945299285965206</v>
+        <v>0.02405532912416773</v>
       </c>
       <c r="P2">
-        <v>0.04754668824173518</v>
+        <v>0.02531756756689831</v>
       </c>
       <c r="Q2">
-        <v>0.03157706159844444</v>
+        <v>0.01386249755022222</v>
       </c>
       <c r="R2">
-        <v>0.284193554386</v>
+        <v>0.124762477952</v>
       </c>
       <c r="S2">
-        <v>0.001038827387732752</v>
+        <v>0.004375187409424155</v>
       </c>
       <c r="T2">
-        <v>0.001853508690127554</v>
+        <v>0.006331369998964425</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>0.097622</v>
       </c>
       <c r="I3">
-        <v>0.02633076257175775</v>
+        <v>0.1818801724491279</v>
       </c>
       <c r="J3">
-        <v>0.03898291886711459</v>
+        <v>0.2500781318045117</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>3.123578</v>
       </c>
       <c r="O3">
-        <v>0.04233170747586662</v>
+        <v>0.05879323641880037</v>
       </c>
       <c r="P3">
-        <v>0.05101596487889641</v>
+        <v>0.06187825274916518</v>
       </c>
       <c r="Q3">
         <v>0.03388110350177778</v>
@@ -638,10 +638,10 @@
         <v>0.304929931516</v>
       </c>
       <c r="S3">
-        <v>0.001114626138804147</v>
+        <v>0.01069332397869376</v>
       </c>
       <c r="T3">
-        <v>0.001988751219801586</v>
+        <v>0.01547439784683862</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,10 +670,10 @@
         <v>0.097622</v>
       </c>
       <c r="I4">
-        <v>0.02633076257175775</v>
+        <v>0.1818801724491279</v>
       </c>
       <c r="J4">
-        <v>0.03898291886711459</v>
+        <v>0.2500781318045117</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.170211333333333</v>
+        <v>5.850740666666667</v>
       </c>
       <c r="N4">
-        <v>15.510634</v>
+        <v>17.552222</v>
       </c>
       <c r="O4">
-        <v>0.2102049704707969</v>
+        <v>0.3303749538898241</v>
       </c>
       <c r="P4">
-        <v>0.2533280614069559</v>
+        <v>0.3477104875323931</v>
       </c>
       <c r="Q4">
-        <v>0.1682421235942222</v>
+        <v>0.1903870017871111</v>
       </c>
       <c r="R4">
-        <v>1.514179112348</v>
+        <v>1.713483016084</v>
       </c>
       <c r="S4">
-        <v>0.005534857168869904</v>
+        <v>0.06008865358635389</v>
       </c>
       <c r="T4">
-        <v>0.009875467264590784</v>
+        <v>0.08695478913093682</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>0.097622</v>
       </c>
       <c r="I5">
-        <v>0.02633076257175775</v>
+        <v>0.1818801724491279</v>
       </c>
       <c r="J5">
-        <v>0.03898291886711459</v>
+        <v>0.2500781318045117</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.56068</v>
+        <v>2.648771</v>
       </c>
       <c r="N5">
-        <v>25.12136</v>
+        <v>5.297542</v>
       </c>
       <c r="O5">
-        <v>0.5106788094851177</v>
+        <v>0.1495686865725097</v>
       </c>
       <c r="P5">
-        <v>0.4102956351562577</v>
+        <v>0.1049445996947469</v>
       </c>
       <c r="Q5">
-        <v>0.4087329009866667</v>
+        <v>0.08619277418733334</v>
       </c>
       <c r="R5">
-        <v>2.45239740592</v>
+        <v>0.5171566451239999</v>
       </c>
       <c r="S5">
-        <v>0.01344656248298054</v>
+        <v>0.02720357850679763</v>
       </c>
       <c r="T5">
-        <v>0.01599452145682764</v>
+        <v>0.02624434943463462</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>0.097622</v>
       </c>
       <c r="I6">
-        <v>0.02633076257175775</v>
+        <v>0.1818801724491279</v>
       </c>
       <c r="J6">
-        <v>0.03898291886711459</v>
+        <v>0.2500781318045117</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.853575333333334</v>
+        <v>7.742685666666667</v>
       </c>
       <c r="N6">
-        <v>14.560726</v>
+        <v>23.228057</v>
       </c>
       <c r="O6">
-        <v>0.1973315197085667</v>
+        <v>0.4372077939946981</v>
       </c>
       <c r="P6">
-        <v>0.2378136503161547</v>
+        <v>0.4601490924567965</v>
       </c>
       <c r="Q6">
-        <v>0.1579385770635556</v>
+        <v>0.2519521533837778</v>
       </c>
       <c r="R6">
-        <v>1.421447193572</v>
+        <v>2.267569380454</v>
       </c>
       <c r="S6">
-        <v>0.005195889393370407</v>
+        <v>0.07951942896785848</v>
       </c>
       <c r="T6">
-        <v>0.009270670235767019</v>
+        <v>0.1150732253931372</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,22 +844,22 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>1.2033015</v>
+        <v>0.146372</v>
       </c>
       <c r="H7">
-        <v>2.406603</v>
+        <v>0.292744</v>
       </c>
       <c r="I7">
-        <v>0.9736692374282422</v>
+        <v>0.8181198275508721</v>
       </c>
       <c r="J7">
-        <v>0.9610170811328854</v>
+        <v>0.7499218681954883</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9703876666666665</v>
+        <v>0.4260053333333333</v>
       </c>
       <c r="N7">
-        <v>2.911163</v>
+        <v>1.278016</v>
       </c>
       <c r="O7">
-        <v>0.03945299285965206</v>
+        <v>0.02405532912416773</v>
       </c>
       <c r="P7">
-        <v>0.04754668824173518</v>
+        <v>0.02531756756689831</v>
       </c>
       <c r="Q7">
-        <v>1.1676689348815</v>
+        <v>0.06235525265066667</v>
       </c>
       <c r="R7">
-        <v>7.006013609288998</v>
+        <v>0.374131515904</v>
       </c>
       <c r="S7">
-        <v>0.03841416547191931</v>
+        <v>0.01968014171474357</v>
       </c>
       <c r="T7">
-        <v>0.04569317955160763</v>
+        <v>0.01898619756793388</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,22 +906,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G8">
-        <v>1.2033015</v>
+        <v>0.146372</v>
       </c>
       <c r="H8">
-        <v>2.406603</v>
+        <v>0.292744</v>
       </c>
       <c r="I8">
-        <v>0.9736692374282422</v>
+        <v>0.8181198275508721</v>
       </c>
       <c r="J8">
-        <v>0.9610170811328854</v>
+        <v>0.7499218681954883</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>3.123578</v>
       </c>
       <c r="O8">
-        <v>0.04233170747586662</v>
+        <v>0.05879323641880037</v>
       </c>
       <c r="P8">
-        <v>0.05101596487889641</v>
+        <v>0.06187825274916518</v>
       </c>
       <c r="Q8">
-        <v>1.252868697589</v>
+        <v>0.1524014530053333</v>
       </c>
       <c r="R8">
-        <v>7.517212185534</v>
+        <v>0.9144087180320001</v>
       </c>
       <c r="S8">
-        <v>0.04121708133706247</v>
+        <v>0.04809991244010661</v>
       </c>
       <c r="T8">
-        <v>0.04902721365909483</v>
+        <v>0.04640385490232657</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,22 +968,22 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G9">
-        <v>1.2033015</v>
+        <v>0.146372</v>
       </c>
       <c r="H9">
-        <v>2.406603</v>
+        <v>0.292744</v>
       </c>
       <c r="I9">
-        <v>0.9736692374282422</v>
+        <v>0.8181198275508721</v>
       </c>
       <c r="J9">
-        <v>0.9610170811328854</v>
+        <v>0.7499218681954883</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.170211333333333</v>
+        <v>5.850740666666667</v>
       </c>
       <c r="N9">
-        <v>15.510634</v>
+        <v>17.552222</v>
       </c>
       <c r="O9">
-        <v>0.2102049704707969</v>
+        <v>0.3303749538898241</v>
       </c>
       <c r="P9">
-        <v>0.2533280614069559</v>
+        <v>0.3477104875323931</v>
       </c>
       <c r="Q9">
-        <v>6.221323052717</v>
+        <v>0.8563846128613334</v>
       </c>
       <c r="R9">
-        <v>37.327938316302</v>
+        <v>5.138307677168</v>
       </c>
       <c r="S9">
-        <v>0.204670113301927</v>
+        <v>0.2702863003034702</v>
       </c>
       <c r="T9">
-        <v>0.2434525941423651</v>
+        <v>0.2607556984014563</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,22 +1030,22 @@
         <v>21</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G10">
-        <v>1.2033015</v>
+        <v>0.146372</v>
       </c>
       <c r="H10">
-        <v>2.406603</v>
+        <v>0.292744</v>
       </c>
       <c r="I10">
-        <v>0.9736692374282422</v>
+        <v>0.8181198275508721</v>
       </c>
       <c r="J10">
-        <v>0.9610170811328854</v>
+        <v>0.7499218681954883</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.56068</v>
+        <v>2.648771</v>
       </c>
       <c r="N10">
-        <v>25.12136</v>
+        <v>5.297542</v>
       </c>
       <c r="O10">
-        <v>0.5106788094851177</v>
+        <v>0.1495686865725097</v>
       </c>
       <c r="P10">
-        <v>0.4102956351562577</v>
+        <v>0.1049445996947469</v>
       </c>
       <c r="Q10">
-        <v>15.11428508502</v>
+        <v>0.387705908812</v>
       </c>
       <c r="R10">
-        <v>60.45714034007999</v>
+        <v>1.550823635248</v>
       </c>
       <c r="S10">
-        <v>0.4972322470021371</v>
+        <v>0.1223651080657121</v>
       </c>
       <c r="T10">
-        <v>0.3943011136994301</v>
+        <v>0.07870025026011224</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,22 +1092,22 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G11">
-        <v>1.2033015</v>
+        <v>0.146372</v>
       </c>
       <c r="H11">
-        <v>2.406603</v>
+        <v>0.292744</v>
       </c>
       <c r="I11">
-        <v>0.9736692374282422</v>
+        <v>0.8181198275508721</v>
       </c>
       <c r="J11">
-        <v>0.9610170811328854</v>
+        <v>0.7499218681954883</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.853575333333334</v>
+        <v>7.742685666666667</v>
       </c>
       <c r="N11">
-        <v>14.560726</v>
+        <v>23.228057</v>
       </c>
       <c r="O11">
-        <v>0.1973315197085667</v>
+        <v>0.4372077939946981</v>
       </c>
       <c r="P11">
-        <v>0.2378136503161547</v>
+        <v>0.4601490924567965</v>
       </c>
       <c r="Q11">
-        <v>5.840314478962999</v>
+        <v>1.133312386401333</v>
       </c>
       <c r="R11">
-        <v>35.041886873778</v>
+        <v>6.799874318408</v>
       </c>
       <c r="S11">
-        <v>0.1921356303151963</v>
+        <v>0.3576883650268396</v>
       </c>
       <c r="T11">
-        <v>0.2285429800803877</v>
+        <v>0.3450758670636593</v>
       </c>
     </row>
   </sheetData>
